--- a/outputs-HGR-r202/g__Ruminococcus.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,35 +442,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__Ruminococcus sp002438605</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Ruminococcus sp002438605</t>
+          <t>2-s__Ruminococcus sp900540005</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Ruminococcus sp900540005</t>
+          <t>3-s__Ruminococcus sp900545125</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Ruminococcus sp900545125</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -483,26 +478,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.149834648760791e-05</v>
+        <v>0.001443086859326219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001643239169402816</v>
+        <v>0.9984663991351156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9983366791208245</v>
+        <v>9.051400555809257e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>8.583363285189094e-06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9983366791208245</v>
+        <v>0.9984663991351156</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900540005</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus sp900540005</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>s__Ruminococcus sp900540005</t>
         </is>
@@ -515,26 +507,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.354299311660522e-05</v>
+        <v>0.001810310816135629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002264381609876744</v>
+        <v>0.998145524353058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9977202964935366</v>
+        <v>4.416483080647383e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.778903469936543e-06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9977202964935366</v>
+        <v>0.998145524353058</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900540005</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus sp900540005</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>s__Ruminococcus sp900540005</t>
         </is>
@@ -547,26 +536,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002084994498505568</v>
+        <v>0.0006016962109992905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003665797433224936</v>
+        <v>0.9992825139703625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994223874149177</v>
+        <v>0.0001157898186382958</v>
       </c>
       <c r="E4" t="n">
-        <v>2.533391909317832e-06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9994223874149177</v>
+        <v>0.9992825139703625</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900540005</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus sp900540005</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>s__Ruminococcus sp900540005</t>
         </is>

--- a/outputs-HGR-r202/g__Ruminococcus.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__Ruminococcus sp900540005</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900540005</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__Ruminococcus sp900540005</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900540005</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -533,6 +548,11 @@
         <v>0.9992825139703625</v>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900540005</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>s__Ruminococcus sp900540005</t>
         </is>
